--- a/biology/Médecine/Mouvement_populaire_pour_la_santé/Mouvement_populaire_pour_la_santé.xlsx
+++ b/biology/Médecine/Mouvement_populaire_pour_la_santé/Mouvement_populaire_pour_la_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouvement_populaire_pour_la_sant%C3%A9</t>
+          <t>Mouvement_populaire_pour_la_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mouvement populaire pour la santé (Popular Health Movement) est un mouvement de masse né aux États-Unis dans les années 1830-1840, qui œuvrait notamment à l'éducation populaire autour de notions simples d'anatomie et de médecine. Il s'agit du front médical d'un soulèvement social généralisé à cette époque, et qui a été nourri par les mouvements féministe et ouvrier.
-L'objectif de ce mouvement était principalement de s'opposer au recours aux "remèdes" appliqués par les médecins de l'époque, en privilégiant des recommandations préventives, notamment liées à l'hygiène personnelle au quotidien. Il s'agissait en ce sens de soutenir la "médecine du peuple" implantée mais mise à mal par le nouvel élitisme médical du XIXe siècle[1].
+L'objectif de ce mouvement était principalement de s'opposer au recours aux "remèdes" appliqués par les médecins de l'époque, en privilégiant des recommandations préventives, notamment liées à l'hygiène personnelle au quotidien. Il s'agissait en ce sens de soutenir la "médecine du peuple" implantée mais mise à mal par le nouvel élitisme médical du XIXe siècle.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mouvement_populaire_pour_la_sant%C3%A9</t>
+          <t>Mouvement_populaire_pour_la_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Doctrine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mouvement populaire pour la santé fonde sa doctrine sur la remise en question des pratiques et théories des médecins "réguliers".
 </t>
